--- a/StaticData/Entity.xlsx
+++ b/StaticData/Entity.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\MonMoose\StaticData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\MonMoose\StaticData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3851581C-E753-4421-9F9F-3F7A00859D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -108,18 +107,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Actor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,11 +445,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -493,7 +492,7 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -538,7 +537,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -552,7 +551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/StaticData/Entity.xlsx
+++ b/StaticData/Entity.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\MonMoose\StaticData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\MonMoose\StaticData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C75577A-98EF-4968-9986-6B25E248C82B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
     <sheet name="EEntityType" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,11 +446,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -543,6 +544,34 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -551,7 +580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/StaticData/Entity.xlsx
+++ b/StaticData/Entity.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\MonMoose\StaticData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\MonMoose\StaticData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C75577A-98EF-4968-9986-6B25E248C82B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -112,14 +111,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RefId</t>
+    <t>SpecificId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,11 +445,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -580,7 +579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/StaticData/Entity.xlsx
+++ b/StaticData/Entity.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
     <sheet name="EEntityType" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -95,23 +95,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>EEntityType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecificId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Entity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EEntityType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntityType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpecificId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +449,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -467,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -489,10 +489,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -503,7 +503,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -537,7 +537,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -596,7 +596,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/StaticData/Entity.xlsx
+++ b/StaticData/Entity.xlsx
@@ -12,8 +12,7 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225"/>
   </bookViews>
   <sheets>
-    <sheet name="Entity" sheetId="1" r:id="rId1"/>
-    <sheet name="EEntityType" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,22 +75,6 @@
   </si>
   <si>
     <t>Actor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成员名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -449,7 +432,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -467,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -489,10 +472,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -503,7 +486,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -537,7 +520,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -576,55 +559,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>